--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf2-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf2</t>
+  </si>
+  <si>
+    <t>Sdc4</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf2</t>
-  </si>
-  <si>
-    <t>Sdc4</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H2">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I2">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J2">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N2">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O2">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P2">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q2">
-        <v>0.06195365624933333</v>
+        <v>3.309291594722222</v>
       </c>
       <c r="R2">
-        <v>0.557582906244</v>
+        <v>29.7836243525</v>
       </c>
       <c r="S2">
-        <v>4.065716411494623E-05</v>
+        <v>0.001903030876485961</v>
       </c>
       <c r="T2">
-        <v>4.065716411494625E-05</v>
+        <v>0.001903030876485962</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H3">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I3">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J3">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>111.38229</v>
       </c>
       <c r="O3">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P3">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q3">
-        <v>14.77593746397</v>
+        <v>37.64069196812999</v>
       </c>
       <c r="R3">
-        <v>132.98343717573</v>
+        <v>338.76622771317</v>
       </c>
       <c r="S3">
-        <v>0.009696727373233524</v>
+        <v>0.02164553862279434</v>
       </c>
       <c r="T3">
-        <v>0.00969672737323353</v>
+        <v>0.02164553862279434</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H4">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I4">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J4">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N4">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O4">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P4">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q4">
-        <v>7.061173980500668</v>
+        <v>15.28341601854067</v>
       </c>
       <c r="R4">
-        <v>63.550565824506</v>
+        <v>137.550744166866</v>
       </c>
       <c r="S4">
-        <v>0.004633904223731639</v>
+        <v>0.008788833425210562</v>
       </c>
       <c r="T4">
-        <v>0.00463390422373164</v>
+        <v>0.008788833425210566</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H5">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I5">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J5">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N5">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O5">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P5">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q5">
-        <v>9.530172285180001</v>
+        <v>31.51357837310689</v>
       </c>
       <c r="R5">
-        <v>85.77155056661999</v>
+        <v>283.622205357962</v>
       </c>
       <c r="S5">
-        <v>0.006254187437830918</v>
+        <v>0.01812209983799163</v>
       </c>
       <c r="T5">
-        <v>0.006254187437830919</v>
+        <v>0.01812209983799164</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H6">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I6">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J6">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N6">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O6">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P6">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q6">
-        <v>1.941486824335</v>
+        <v>5.633407842063888</v>
       </c>
       <c r="R6">
-        <v>17.473381419015</v>
+        <v>50.700670578575</v>
       </c>
       <c r="S6">
-        <v>0.001274103147783845</v>
+        <v>0.003239529898297041</v>
       </c>
       <c r="T6">
-        <v>0.001274103147783845</v>
+        <v>0.003239529898297042</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H7">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I7">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J7">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N7">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O7">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P7">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q7">
-        <v>7.512652634172334</v>
+        <v>29.12764824233755</v>
       </c>
       <c r="R7">
-        <v>67.61387370755099</v>
+        <v>262.148834181038</v>
       </c>
       <c r="S7">
-        <v>0.004930187652797562</v>
+        <v>0.01675005431766529</v>
       </c>
       <c r="T7">
-        <v>0.004930187652797563</v>
+        <v>0.0167500543176653</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H8">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I8">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J8">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N8">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O8">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P8">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q8">
-        <v>1.766693734785777</v>
+        <v>37.04476201444445</v>
       </c>
       <c r="R8">
-        <v>15.900243613072</v>
+        <v>333.40285813</v>
       </c>
       <c r="S8">
-        <v>0.001159394964955044</v>
+        <v>0.02130284500706851</v>
       </c>
       <c r="T8">
-        <v>0.001159394964955044</v>
+        <v>0.02130284500706852</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H9">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I9">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J9">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>111.38229</v>
       </c>
       <c r="O9">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P9">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q9">
         <v>421.35618337236</v>
@@ -1013,10 +1013,10 @@
         <v>3792.20565035124</v>
       </c>
       <c r="S9">
-        <v>0.2765155203959695</v>
+        <v>0.2423037692522192</v>
       </c>
       <c r="T9">
-        <v>0.2765155203959697</v>
+        <v>0.2423037692522193</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H10">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I10">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J10">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N10">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O10">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P10">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q10">
-        <v>201.3590897908809</v>
+        <v>171.0851077848614</v>
       </c>
       <c r="R10">
-        <v>1812.231808117928</v>
+        <v>1539.765970063752</v>
       </c>
       <c r="S10">
-        <v>0.1321421535916556</v>
+        <v>0.09838366710892661</v>
       </c>
       <c r="T10">
-        <v>0.1321421535916556</v>
+        <v>0.09838366710892663</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H11">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I11">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J11">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N11">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O11">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P11">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q11">
-        <v>271.7659729378399</v>
+        <v>352.7682519476738</v>
       </c>
       <c r="R11">
-        <v>2445.89375644056</v>
+        <v>3174.914267529065</v>
       </c>
       <c r="S11">
-        <v>0.1783467583918535</v>
+        <v>0.2028618078778739</v>
       </c>
       <c r="T11">
-        <v>0.1783467583918535</v>
+        <v>0.2028618078778739</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H12">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I12">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J12">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N12">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O12">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P12">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q12">
-        <v>55.36416761131332</v>
+        <v>63.06130688887779</v>
       </c>
       <c r="R12">
-        <v>498.2775085018199</v>
+        <v>567.5517619999001</v>
       </c>
       <c r="S12">
-        <v>0.03633280398499125</v>
+        <v>0.03626383795023799</v>
       </c>
       <c r="T12">
-        <v>0.03633280398499127</v>
+        <v>0.036263837950238</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H13">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I13">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J13">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N13">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O13">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P13">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q13">
-        <v>214.2336246790431</v>
+        <v>326.0597521532151</v>
       </c>
       <c r="R13">
-        <v>1928.102622111388</v>
+        <v>2934.537769378936</v>
       </c>
       <c r="S13">
-        <v>0.1405910831551508</v>
+        <v>0.1875029015021001</v>
       </c>
       <c r="T13">
-        <v>0.1405910831551508</v>
+        <v>0.1875029015021001</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H14">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I14">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J14">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N14">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O14">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P14">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q14">
-        <v>0.01860809314</v>
+        <v>4.841937530833333</v>
       </c>
       <c r="R14">
-        <v>0.16747283826</v>
+        <v>43.5774377775</v>
       </c>
       <c r="S14">
-        <v>1.221158431093122E-05</v>
+        <v>0.002784389456005455</v>
       </c>
       <c r="T14">
-        <v>1.221158431093123E-05</v>
+        <v>0.002784389456005456</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H15">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I15">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J15">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>111.38229</v>
       </c>
       <c r="O15">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P15">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q15">
-        <v>4.438027345050001</v>
+        <v>55.07338169223</v>
       </c>
       <c r="R15">
-        <v>39.94224610545</v>
+        <v>495.66043523007</v>
       </c>
       <c r="S15">
-        <v>0.002912460975477272</v>
+        <v>0.03167032666446176</v>
       </c>
       <c r="T15">
-        <v>0.002912460975477274</v>
+        <v>0.03167032666446177</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H16">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I16">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J16">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N16">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O16">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P16">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q16">
-        <v>2.12085922061</v>
+        <v>22.361687842054</v>
       </c>
       <c r="R16">
-        <v>19.08773298549</v>
+        <v>201.255190578486</v>
       </c>
       <c r="S16">
-        <v>0.001391816506357776</v>
+        <v>0.01285924228666876</v>
       </c>
       <c r="T16">
-        <v>0.001391816506357777</v>
+        <v>0.01285924228666877</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H17">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I17">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J17">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N17">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O17">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P17">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q17">
-        <v>2.8624353147</v>
+        <v>46.10859257581134</v>
       </c>
       <c r="R17">
-        <v>25.7619178323</v>
+        <v>414.9773331823021</v>
       </c>
       <c r="S17">
-        <v>0.001878476742192725</v>
+        <v>0.02651506306758249</v>
       </c>
       <c r="T17">
-        <v>0.001878476742192726</v>
+        <v>0.0265150630675825</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H18">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I18">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J18">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N18">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O18">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P18">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q18">
-        <v>0.583135360275</v>
+        <v>8.242431371258334</v>
       </c>
       <c r="R18">
-        <v>5.248218242475</v>
+        <v>74.18188234132501</v>
       </c>
       <c r="S18">
-        <v>0.0003826833068336316</v>
+        <v>0.00473986681072079</v>
       </c>
       <c r="T18">
-        <v>0.0003826833068336318</v>
+        <v>0.004739866810720791</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H19">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I19">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J19">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N19">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O19">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P19">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q19">
-        <v>2.256463111435</v>
+        <v>42.61765673185534</v>
       </c>
       <c r="R19">
-        <v>20.308168002915</v>
+        <v>383.558910586698</v>
       </c>
       <c r="S19">
-        <v>0.001480806728689595</v>
+        <v>0.02450757641712385</v>
       </c>
       <c r="T19">
-        <v>0.001480806728689596</v>
+        <v>0.02450757641712386</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H20">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I20">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J20">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N20">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O20">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P20">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q20">
-        <v>0.3703552009328888</v>
+        <v>1.024946157222222</v>
       </c>
       <c r="R20">
-        <v>3.333196808396</v>
+        <v>9.224515415000001</v>
       </c>
       <c r="S20">
-        <v>0.0002430460621170261</v>
+        <v>0.0005894023322212702</v>
       </c>
       <c r="T20">
-        <v>0.0002430460621170262</v>
+        <v>0.0005894023322212703</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H21">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I21">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J21">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>111.38229</v>
       </c>
       <c r="O21">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P21">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q21">
-        <v>88.32965832423001</v>
+        <v>11.65798826838</v>
       </c>
       <c r="R21">
-        <v>794.96692491807</v>
+        <v>104.92189441542</v>
       </c>
       <c r="S21">
-        <v>0.05796644834410382</v>
+        <v>0.00670400627971875</v>
       </c>
       <c r="T21">
-        <v>0.05796644834410385</v>
+        <v>0.006704006279718751</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H22">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I22">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J22">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N22">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O22">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P22">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q22">
-        <v>42.21126995065045</v>
+        <v>4.733544345990667</v>
       </c>
       <c r="R22">
-        <v>379.901429555854</v>
+        <v>42.60189911391601</v>
       </c>
       <c r="S22">
-        <v>0.02770119850517072</v>
+        <v>0.002722057210069431</v>
       </c>
       <c r="T22">
-        <v>0.02770119850517074</v>
+        <v>0.002722057210069431</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H23">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I23">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J23">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N23">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O23">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P23">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q23">
-        <v>56.97079212561999</v>
+        <v>9.760312782756891</v>
       </c>
       <c r="R23">
-        <v>512.73712913058</v>
+        <v>87.84281504481201</v>
       </c>
       <c r="S23">
-        <v>0.03738715332454238</v>
+        <v>0.005612734948884453</v>
       </c>
       <c r="T23">
-        <v>0.0373871533245424</v>
+        <v>0.005612734948884454</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H24">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I24">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J24">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N24">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O24">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P24">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q24">
-        <v>11.60609052743166</v>
+        <v>1.744766078938889</v>
       </c>
       <c r="R24">
-        <v>104.454814746885</v>
+        <v>15.70289471045</v>
       </c>
       <c r="S24">
-        <v>0.007616511371139451</v>
+        <v>0.001003339725565874</v>
       </c>
       <c r="T24">
-        <v>0.007616511371139455</v>
+        <v>0.001003339725565875</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H25">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I25">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J25">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N25">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O25">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P25">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q25">
-        <v>44.91018197005656</v>
+        <v>9.021348007687557</v>
       </c>
       <c r="R25">
-        <v>404.191637730509</v>
+        <v>81.19213206918801</v>
       </c>
       <c r="S25">
-        <v>0.02947236288105816</v>
+        <v>0.00518778817603578</v>
       </c>
       <c r="T25">
-        <v>0.02947236288105817</v>
+        <v>0.005187788176035781</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H26">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I26">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J26">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.1556706666666667</v>
+        <v>3.264166666666667</v>
       </c>
       <c r="N26">
-        <v>0.467012</v>
+        <v>9.7925</v>
       </c>
       <c r="O26">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="P26">
-        <v>0.00151537522169743</v>
+        <v>0.02701285365228691</v>
       </c>
       <c r="Q26">
-        <v>0.02033053717644444</v>
+        <v>0.7532924147222222</v>
       </c>
       <c r="R26">
-        <v>0.182974834588</v>
+        <v>6.7796317325</v>
       </c>
       <c r="S26">
-        <v>1.334194035620959E-05</v>
+        <v>0.000433185980505712</v>
       </c>
       <c r="T26">
-        <v>1.33419403562096E-05</v>
+        <v>0.000433185980505712</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H27">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I27">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J27">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>111.38229</v>
       </c>
       <c r="O27">
-        <v>0.3614167567469731</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="P27">
-        <v>0.3614167567469732</v>
+        <v>0.3072508041078968</v>
       </c>
       <c r="Q27">
-        <v>4.84882998219</v>
+        <v>8.568132161489999</v>
       </c>
       <c r="R27">
-        <v>43.63946983971</v>
+        <v>77.11318945341</v>
       </c>
       <c r="S27">
-        <v>0.003182050718007332</v>
+        <v>0.004927163288702739</v>
       </c>
       <c r="T27">
-        <v>0.003182050718007334</v>
+        <v>0.004927163288702739</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H28">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I28">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J28">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>17.74257933333334</v>
+        <v>15.075014</v>
       </c>
       <c r="N28">
-        <v>53.227738</v>
+        <v>45.225042</v>
       </c>
       <c r="O28">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="P28">
-        <v>0.1727150378838289</v>
+        <v>0.1247543978518794</v>
       </c>
       <c r="Q28">
-        <v>2.317174946740222</v>
+        <v>3.478956455868667</v>
       </c>
       <c r="R28">
-        <v>20.854574520662</v>
+        <v>31.310608102818</v>
       </c>
       <c r="S28">
-        <v>0.001520648946262518</v>
+        <v>0.002000597821004035</v>
       </c>
       <c r="T28">
-        <v>0.001520648946262519</v>
+        <v>0.002000597821004035</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H29">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I29">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J29">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.94642</v>
+        <v>31.08386466666667</v>
       </c>
       <c r="N29">
-        <v>71.83926</v>
+        <v>93.25159400000001</v>
       </c>
       <c r="O29">
-        <v>0.2331062896651034</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="P29">
-        <v>0.2331062896651035</v>
+        <v>0.2572368303869774</v>
       </c>
       <c r="Q29">
-        <v>3.12739446986</v>
+        <v>7.17342031360289</v>
       </c>
       <c r="R29">
-        <v>28.14655022873999</v>
+        <v>64.56078282242601</v>
       </c>
       <c r="S29">
-        <v>0.0020523565179358</v>
+        <v>0.004125124654644941</v>
       </c>
       <c r="T29">
-        <v>0.0020523565179358</v>
+        <v>0.004125124654644941</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H30">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I30">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J30">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.878365</v>
+        <v>5.556591666666667</v>
       </c>
       <c r="N30">
-        <v>14.635095</v>
+        <v>16.669775</v>
       </c>
       <c r="O30">
-        <v>0.04748841642225027</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="P30">
-        <v>0.04748841642225028</v>
+        <v>0.04598398697896871</v>
       </c>
       <c r="Q30">
-        <v>0.6371128428783331</v>
+        <v>1.282329850663889</v>
       </c>
       <c r="R30">
-        <v>5.734015585904999</v>
+        <v>11.540968655975</v>
       </c>
       <c r="S30">
-        <v>0.0004181060970541683</v>
+        <v>0.0007374125941470111</v>
       </c>
       <c r="T30">
-        <v>0.0004181060970541685</v>
+        <v>0.0007374125941470111</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H31">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I31">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J31">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>18.87700766666667</v>
+        <v>28.73046866666667</v>
       </c>
       <c r="N31">
-        <v>56.631023</v>
+        <v>86.191406</v>
       </c>
       <c r="O31">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="P31">
-        <v>0.1837581240601467</v>
+        <v>0.2377611270219907</v>
       </c>
       <c r="Q31">
-        <v>2.465330908930778</v>
+        <v>6.630312213841556</v>
       </c>
       <c r="R31">
-        <v>22.187978180377</v>
+        <v>59.672809924574</v>
       </c>
       <c r="S31">
-        <v>0.001617876481069295</v>
+        <v>0.003812806609065705</v>
       </c>
       <c r="T31">
-        <v>0.001617876481069296</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H32">
-        <v>1.372081</v>
-      </c>
-      <c r="I32">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J32">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M32">
-        <v>0.1556706666666667</v>
-      </c>
-      <c r="N32">
-        <v>0.467012</v>
-      </c>
-      <c r="O32">
-        <v>0.00151537522169743</v>
-      </c>
-      <c r="P32">
-        <v>0.00151537522169743</v>
-      </c>
-      <c r="Q32">
-        <v>0.07119758799688888</v>
-      </c>
-      <c r="R32">
-        <v>0.640778291972</v>
-      </c>
-      <c r="S32">
-        <v>4.672350584327275E-05</v>
-      </c>
-      <c r="T32">
-        <v>4.672350584327277E-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H33">
-        <v>1.372081</v>
-      </c>
-      <c r="I33">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J33">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>37.12743</v>
-      </c>
-      <c r="N33">
-        <v>111.38229</v>
-      </c>
-      <c r="O33">
-        <v>0.3614167567469731</v>
-      </c>
-      <c r="P33">
-        <v>0.3614167567469732</v>
-      </c>
-      <c r="Q33">
-        <v>16.98061376061</v>
-      </c>
-      <c r="R33">
-        <v>152.82552384549</v>
-      </c>
-      <c r="S33">
-        <v>0.01114354894018162</v>
-      </c>
-      <c r="T33">
-        <v>0.01114354894018163</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H34">
-        <v>1.372081</v>
-      </c>
-      <c r="I34">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J34">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>17.74257933333334</v>
-      </c>
-      <c r="N34">
-        <v>53.227738</v>
-      </c>
-      <c r="O34">
-        <v>0.1727150378838289</v>
-      </c>
-      <c r="P34">
-        <v>0.1727150378838289</v>
-      </c>
-      <c r="Q34">
-        <v>8.114751998086446</v>
-      </c>
-      <c r="R34">
-        <v>73.03276798277801</v>
-      </c>
-      <c r="S34">
-        <v>0.005325316110650672</v>
-      </c>
-      <c r="T34">
-        <v>0.005325316110650674</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H35">
-        <v>1.372081</v>
-      </c>
-      <c r="I35">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J35">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>23.94642</v>
-      </c>
-      <c r="N35">
-        <v>71.83926</v>
-      </c>
-      <c r="O35">
-        <v>0.2331062896651034</v>
-      </c>
-      <c r="P35">
-        <v>0.2331062896651035</v>
-      </c>
-      <c r="Q35">
-        <v>10.95214263334</v>
-      </c>
-      <c r="R35">
-        <v>98.56928370006</v>
-      </c>
-      <c r="S35">
-        <v>0.00718735725074814</v>
-      </c>
-      <c r="T35">
-        <v>0.007187357250748143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H36">
-        <v>1.372081</v>
-      </c>
-      <c r="I36">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J36">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>4.878365</v>
-      </c>
-      <c r="N36">
-        <v>14.635095</v>
-      </c>
-      <c r="O36">
-        <v>0.04748841642225027</v>
-      </c>
-      <c r="P36">
-        <v>0.04748841642225028</v>
-      </c>
-      <c r="Q36">
-        <v>2.231170642521667</v>
-      </c>
-      <c r="R36">
-        <v>20.080535782695</v>
-      </c>
-      <c r="S36">
-        <v>0.00146420851444792</v>
-      </c>
-      <c r="T36">
-        <v>0.00146420851444792</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H37">
-        <v>1.372081</v>
-      </c>
-      <c r="I37">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J37">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>18.87700766666667</v>
-      </c>
-      <c r="N37">
-        <v>56.631023</v>
-      </c>
-      <c r="O37">
-        <v>0.1837581240601467</v>
-      </c>
-      <c r="P37">
-        <v>0.1837581240601467</v>
-      </c>
-      <c r="Q37">
-        <v>8.633594518762557</v>
-      </c>
-      <c r="R37">
-        <v>77.70235066886301</v>
-      </c>
-      <c r="S37">
-        <v>0.005665807161381322</v>
-      </c>
-      <c r="T37">
-        <v>0.005665807161381323</v>
+        <v>0.003812806609065705</v>
       </c>
     </row>
   </sheetData>
